--- a/docs/队员情况和任务分配.xlsx
+++ b/docs/队员情况和任务分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>目前在做bi方面  年初接触spark并利用sparkSQL ＋ sparkstreaming kafka mysql实现实时流处理 黑名单过滤 topn等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余陈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,47 +59,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>于宏学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.流计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建kafka或者FLUME集群，构建Sparkstreaming应用，取一部分的数据做为流数据实时打到sparkstreaming中，并用一个sample模型进行处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于宏学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余陈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>杨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>于宏学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.流计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建kafka或者FLUME集群，构建Sparkstreaming应用，取一部分的数据做为流数据实时打到sparkstreaming中，并用一个sample模型进行处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.开发环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速搭建一个建议的web系统，要求能够用点图线图展现run-example例子中跑出来的分类或者聚类算法的结果。</t>
+    <t>余陈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建一个简易的web系统，要求能够把推荐的结果，以及相关数据展现在web上。也可以考虑整合zeppelin到web系统中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scala，Spark，Hadoop，数据清洗，PPT制作，Kafka，Hbase，Hive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scala，Spark，Hive，Kafka，Hbase，Tableau，Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java，关系型数据库，NoSQL，Hadoop，web开发，SPSS，爬虫，分类，回归，Spark，Hive，Scala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java，Python，Hive，Hadoop，Spark，Kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨，罗辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,7 +146,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基于云主机搭建5个一样的伪分布式环境和一个3个节点的分布式集群，需要安装Spark，hadoop，JDK，kafka,zepplin，tomcat等，参考README.MD架构部分，根据数据和应用特点设置一些调优参数，包括GC</t>
+    <t>2.推荐系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于云主机搭建伪分布式集群环境，需要安装Spark，hadoop，JDK，kafka,zepplin，tomcat等，参考README.MD架构部分，根据数据和应用特点设置一些调优参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +172,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,13 +200,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,68 +518,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="67.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="67.375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +613,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,45 +625,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/队员情况和任务分配.xlsx
+++ b/docs/队员情况和任务分配.xlsx
@@ -103,54 +103,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>搭建一个简易的web系统，要求能够把推荐的结果，以及相关数据展现在web上。也可以考虑整合zeppelin到web系统中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scala，Spark，Hadoop，数据清洗，PPT制作，Kafka，Hbase，Hive </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scala，Spark，Hive，Kafka，Hbase，Tableau，Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java，关系型数据库，NoSQL，Hadoop，web开发，SPSS，爬虫，分类，回归，Spark，Hive，Scala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java，Python，Hive，Hadoop，Spark，Kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于movielens的数据做推荐，基于一部分的数据做分类算法方面的应用和探索。如果确实遇到困难，可以考虑yelp的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.推荐系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于云主机搭建伪分布式集群环境，需要安装Spark，hadoop，JDK，kafka,zepplin，tomcat等，参考README.MD架构部分，根据数据和应用特点设置一些调优参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>余陈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搭建一个简易的web系统，要求能够把推荐的结果，以及相关数据展现在web上。也可以考虑整合zeppelin到web系统中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scala，Spark，Hadoop，数据清洗，PPT制作，Kafka，Hbase，Hive </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scala，Spark，Hive，Kafka，Hbase，Tableau，Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java，关系型数据库，NoSQL，Hadoop，web开发，SPSS，爬虫，分类，回归，Spark，Hive，Scala</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java，Python，Hive，Hadoop，Spark，Kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨，罗辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于movielens的数据做推荐，基于一部分的数据做分类算法方面的应用和探索。如果确实遇到困难，可以考虑yelp的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.推荐系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于云主机搭建伪分布式集群环境，需要安装Spark，hadoop，JDK，kafka,zepplin，tomcat等，参考README.MD架构部分，根据数据和应用特点设置一些调优参数</t>
+    <t>刘能，罗辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -568,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +613,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,21 +639,21 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.15">
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
